--- a/biology/Zoologie/Claviphantes/Claviphantes.xlsx
+++ b/biology/Zoologie/Claviphantes/Claviphantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claviphantes est un genre d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claviphantes est un genre d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Népal[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Népal.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 16.5, 05/08/2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 16.5, 05/08/2015) :
 Claviphantes bifurcatoides (Tanasevitch, 1987)
 Claviphantes bifurcatus (Tanasevitch, 1987)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tanasevitch &amp; Saaristo, 2006 : Reassessment of the Nepalese species of the genus Lepthyphantes Menge s. l. with descriptions of new Micronetinae genera and species (Araneae, Linyphiidae, Micronetinae). Senckenbergiana biologica, vol. 86, no 1, p. 11-38.</t>
         </is>
